--- a/Climbing_Stats_ProjectVersion.xlsx
+++ b/Climbing_Stats_ProjectVersion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c4225e56ff66b144/Documents/GitHub/Climbing_Grades_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{A1CC2EAF-7F23-41BB-B249-D06924A47A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{892BE42D-2064-4DCC-9420-411E4F603A11}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="8_{A1CC2EAF-7F23-41BB-B249-D06924A47A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60D2E75D-4946-4582-8B2A-6FFCB7E19A79}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="1395" windowWidth="25770" windowHeight="11385" xr2:uid="{5B28D715-CAB7-4319-B243-CF78FE5ECEAE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5B28D715-CAB7-4319-B243-CF78FE5ECEAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27208FE1-C74E-44F0-A5BD-6075E3D21A87}">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B19" si="0">SUM(H2:M2)</f>
+        <f>SUM(I2:Q2)</f>
         <v>12</v>
       </c>
       <c r="E2">
@@ -563,7 +563,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" si="0"/>
+        <f>SUM(I3:Q3)</f>
         <v>16</v>
       </c>
       <c r="E3">
@@ -599,7 +599,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f>SUM(I4:Q4)</f>
         <v>10</v>
       </c>
       <c r="E4">
@@ -635,8 +635,8 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>SUM(I5:Q5)</f>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>12.3</v>
@@ -668,7 +668,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f>SUM(I6:Q6)</f>
         <v>11</v>
       </c>
       <c r="E6">
@@ -695,7 +695,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
+        <f>SUM(I7:Q7)</f>
         <v>11</v>
       </c>
       <c r="E7">
@@ -719,7 +719,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
+        <f>SUM(I8:Q8)</f>
         <v>12</v>
       </c>
       <c r="E8">
@@ -755,7 +755,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
+        <f>SUM(I9:Q9)</f>
         <v>12</v>
       </c>
       <c r="E9">
@@ -782,8 +782,8 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>SUM(I10:Q10)</f>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>16.29</v>
@@ -821,7 +821,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
+        <f>SUM(I11:Q11)</f>
         <v>13</v>
       </c>
       <c r="E11">
@@ -851,7 +851,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
+        <f>SUM(I12:Q12)</f>
         <v>10</v>
       </c>
       <c r="E12">
@@ -884,7 +884,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f>SUM(I13:Q13)</f>
         <v>7</v>
       </c>
       <c r="E13">
@@ -914,7 +914,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
+        <f>SUM(I14:Q14)</f>
         <v>11</v>
       </c>
       <c r="E14">
@@ -941,7 +941,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
+        <f>SUM(I15:Q15)</f>
         <v>14</v>
       </c>
       <c r="E15">
@@ -971,7 +971,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
+        <f>SUM(I16:Q16)</f>
         <v>19</v>
       </c>
       <c r="E16">
@@ -1004,7 +1004,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
+        <f>SUM(I17:Q17)</f>
         <v>13</v>
       </c>
       <c r="E17">
@@ -1040,7 +1040,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
+        <f>SUM(I18:Q18)</f>
         <v>10</v>
       </c>
       <c r="E18">
@@ -1079,7 +1079,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
+        <f>SUM(I19:Q19)</f>
         <v>11</v>
       </c>
       <c r="E19">
@@ -1121,8 +1121,8 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <f t="shared" ref="B20:B30" si="1">SUM(I20:T20)</f>
-        <v>14</v>
+        <f>SUM(I20:Q20)</f>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>15.25</v>
@@ -1163,8 +1163,8 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>SUM(I21:Q21)</f>
+        <v>9</v>
       </c>
       <c r="E21">
         <v>18.3</v>
@@ -1190,8 +1190,8 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f>SUM(I22:Q22)</f>
+        <v>10</v>
       </c>
       <c r="E22">
         <v>9.1</v>
@@ -1217,49 +1217,157 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(I23:Q23)</f>
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F23">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="R23">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
       <c r="B24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(I24:Q24)</f>
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>12.25</v>
+      </c>
+      <c r="F24">
+        <v>45</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>8</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
       <c r="B25">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(I25:Q25)</f>
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>11.5</v>
+      </c>
+      <c r="F25">
+        <v>45</v>
+      </c>
+      <c r="H25">
+        <v>9</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25">
+        <v>3</v>
+      </c>
+      <c r="P25">
+        <v>4</v>
+      </c>
+      <c r="R25">
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
       <c r="B26">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(I26:Q26)</f>
+        <v>11</v>
+      </c>
+      <c r="E26">
+        <v>15.08</v>
+      </c>
+      <c r="F26">
+        <v>45</v>
+      </c>
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26">
+        <v>9</v>
+      </c>
+      <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="O26">
+        <v>3</v>
+      </c>
+      <c r="P26">
+        <v>4</v>
+      </c>
+      <c r="Q26">
+        <v>2</v>
+      </c>
+      <c r="R26">
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B27">
-        <f t="shared" si="1"/>
+        <f>SUM(I27:Q27)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B28">
-        <f t="shared" si="1"/>
+        <f>SUM(I28:Q28)</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B29">
-        <f t="shared" si="1"/>
+        <f>SUM(I29:Q29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B30">
-        <f t="shared" si="1"/>
+        <f>SUM(I30:Q30)</f>
         <v>0</v>
       </c>
     </row>

--- a/Climbing_Stats_ProjectVersion.xlsx
+++ b/Climbing_Stats_ProjectVersion.xlsx
@@ -1841,7 +1841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
@@ -3197,6 +3197,56 @@
         <v>6</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" t="n">
+        <v>9</v>
+      </c>
+      <c r="C27" t="n">
+        <v>32</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
